--- a/biology/Biochimie/Sérine_hydroxyméthyltransférase/Sérine_hydroxyméthyltransférase.xlsx
+++ b/biology/Biochimie/Sérine_hydroxyméthyltransférase/Sérine_hydroxyméthyltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9rine_hydroxym%C3%A9thyltransf%C3%A9rase</t>
+          <t>Sérine_hydroxyméthyltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sérine hydroxyméthyltransférase (SHMT) est une transférase qui catalyse la réaction :
 5,10-méthylènetétrahydrofolate + glycine + H2O  
         ⇌
     {\displaystyle \rightleftharpoons }
   tétrahydrofolate + L-sérine.
-Cette enzyme joue un rôle important dans les voies métaboliques des composés à un seul atome de carbone en catalysant la conversion simultanée et réversible de la L-sérine en glycine et du tétrahydrofolate en 5,10-méthylènetétrahydrofolate[2]. Cette réaction fournit la plus grande partie des unités monocarbonées pour les biosynthèses de la cellule[3].
-Des bactéries telles qu’Escherichia coli et Bacillus stearothermophilus possèdent leur propre version de cette enzyme et il apparaît y avoir deux isoformes de sérine hydroxyméthyltransférase chez les mammifères, l'une dans le cytoplasme (cSHMT) et l'autre dans les mitochondries (mSHMT). Les plantes posséderaient également une isoforme particulière dans les chloroplastes[4].
-Chez les mammifères, l'enzyme est un tétramère de sous-unités identiques d'environ 50 kDa chacune. L'holoenzyme a par conséquent une masse moléculaire d'environ 200 kDa et incorpore quatre molécules de phosphate de pyridoxal (vitamine B6) comme coenzyme[5].
+Cette enzyme joue un rôle important dans les voies métaboliques des composés à un seul atome de carbone en catalysant la conversion simultanée et réversible de la L-sérine en glycine et du tétrahydrofolate en 5,10-méthylènetétrahydrofolate. Cette réaction fournit la plus grande partie des unités monocarbonées pour les biosynthèses de la cellule.
+Des bactéries telles qu’Escherichia coli et Bacillus stearothermophilus possèdent leur propre version de cette enzyme et il apparaît y avoir deux isoformes de sérine hydroxyméthyltransférase chez les mammifères, l'une dans le cytoplasme (cSHMT) et l'autre dans les mitochondries (mSHMT). Les plantes posséderaient également une isoforme particulière dans les chloroplastes.
+Chez les mammifères, l'enzyme est un tétramère de sous-unités identiques d'environ 50 kDa chacune. L'holoenzyme a par conséquent une masse moléculaire d'environ 200 kDa et incorpore quatre molécules de phosphate de pyridoxal (vitamine B6) comme coenzyme.
 </t>
         </is>
       </c>
